--- a/PIC32ETH/Project_Outputs/Bill_Of_Materials_Order/Bill_Of_Materials_Order.xlsx
+++ b/PIC32ETH/Project_Outputs/Bill_Of_Materials_Order/Bill_Of_Materials_Order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\PIC32ETH_EL\PIC32ETH\Project_Outputs\Bill_Of_Materials_Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7986592-6115-4FFF-BB6C-D2CB55A82CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0DF8EE8-8F79-4270-8DA1-057D3B04845C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="5025" windowWidth="18690" windowHeight="15435" xr2:uid="{94F30CC1-E679-484B-B5C9-809C05F52439}"/>
+    <workbookView xWindow="720" yWindow="5025" windowWidth="18690" windowHeight="15435" xr2:uid="{4E8A08B6-498A-4577-A10A-8C15C0FE46DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill_Of_Materials_Order" sheetId="1" r:id="rId1"/>
@@ -1010,7 +1010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89CEB93-60C1-47C9-9F20-A21C685AD24E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6897532-14CD-4071-8576-D39511187949}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/PIC32ETH/Project_Outputs/Bill_Of_Materials_Order/Bill_Of_Materials_Order.xlsx
+++ b/PIC32ETH/Project_Outputs/Bill_Of_Materials_Order/Bill_Of_Materials_Order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\PIC32ETH_EL\PIC32ETH\Project_Outputs\Bill_Of_Materials_Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0DF8EE8-8F79-4270-8DA1-057D3B04845C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1F263D4-06D5-4C37-9970-83D1D66BD182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="5025" windowWidth="18690" windowHeight="15435" xr2:uid="{4E8A08B6-498A-4577-A10A-8C15C0FE46DC}"/>
+    <workbookView xWindow="0" yWindow="3580" windowWidth="19200" windowHeight="9993" xr2:uid="{B652E76E-45A6-46AF-B43B-4804BC9F3CA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill_Of_Materials_Order" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
     <t>R SMT 1R 1% 125mW 2012</t>
   </si>
   <si>
-    <t>RMCF0805FT4K70RCT-ND</t>
+    <t>RMCF0805FT4K70CT-ND</t>
   </si>
   <si>
     <t>RMCF0805FT4K70</t>
@@ -1010,7 +1010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6897532-14CD-4071-8576-D39511187949}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D0964D-1634-4B18-B964-3C9E848F98F1}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1018,20 +1018,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" customWidth="1"/>
-    <col min="8" max="8" width="42.42578125" customWidth="1"/>
-    <col min="9" max="9" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.87890625" customWidth="1"/>
+    <col min="2" max="2" width="15.3515625" customWidth="1"/>
+    <col min="3" max="3" width="28.3515625" customWidth="1"/>
+    <col min="4" max="4" width="21.703125" customWidth="1"/>
+    <col min="5" max="5" width="15.64453125" customWidth="1"/>
+    <col min="6" max="6" width="9.17578125" customWidth="1"/>
+    <col min="7" max="7" width="31.1171875" customWidth="1"/>
+    <col min="8" max="8" width="39.52734375" customWidth="1"/>
+    <col min="9" max="9" width="27.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>2</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" s="3">
         <v>2</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" s="3">
         <v>2</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" s="3">
         <v>2</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A27" s="3">
         <v>2</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" s="3">
         <v>3</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" s="3">
         <v>3</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" s="3">
         <v>3</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34" s="3">
         <v>5</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A35" s="3">
         <v>5</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36" s="3">
         <v>6</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A37" s="3">
         <v>6</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A38" s="3">
         <v>8</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A39" s="3">
         <v>13</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40" s="3">
         <v>14</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41" s="3">
         <v>22</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42" s="3">
         <v>24</v>
       </c>
@@ -2252,6 +2252,6 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="65" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>